--- a/ConceptMap-R5-Binary-elements-for-R4-Binary.xlsx
+++ b/ConceptMap-R5-Binary-elements-for-R4-Binary.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:31.0939536-06:00</t>
+    <t>2026-02-09T22:05:43.4911675-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -159,9 +159,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/Binary#Binary.securityContext</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Binary.securityContext</t>
-  </si>
-  <si>
     <t>Binary.data</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/Binary#Binary.data</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Binary#Binary.content</t>
   </si>
 </sst>
 </file>
@@ -428,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,42 +540,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="E11" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-Binary-elements-for-R4-Binary.xlsx
+++ b/ConceptMap-R5-Binary-elements-for-R4-Binary.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.4911675-06:00</t>
+    <t>2026-02-17T14:42:26.9994279-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
